--- a/medea/data/processed/data_static.xlsx
+++ b/medea/data/processed/data_static.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\medea_PolicyAustria\medea\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\medea\medea\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1E50EC-683C-4E3E-878C-8EBC94C6FA4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6408F09-2305-40B8-9C0D-5CCB3FC844C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="10" xr2:uid="{621F8D32-52B7-4CE4-9D99-ED32CD70233E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{621F8D32-52B7-4CE4-9D99-ED32CD70233E}"/>
   </bookViews>
   <sheets>
     <sheet name="number_type_legend" sheetId="5" r:id="rId1"/>
@@ -312,12 +312,6 @@
     <t>l</t>
   </si>
   <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
     <t>fuel</t>
   </si>
   <si>
@@ -562,6 +556,12 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>ht</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
         <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1626,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1E3661-57BF-4CCC-8F96-CA78D0E0F5C5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1645,10 +1645,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,10 +1667,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>0.05</v>
@@ -1821,19 +1821,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1855,14 +1855,14 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1895,17 +1895,17 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -1983,19 +1983,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2467,52 +2467,52 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>24</v>
@@ -2574,7 +2574,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -2628,7 +2628,7 @@
         <v>20.5</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -2682,7 +2682,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2736,7 +2736,7 @@
         <v>21.5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2790,7 +2790,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2844,7 +2844,7 @@
         <v>30.5</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2898,7 +2898,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2952,7 +2952,7 @@
         <v>31.5</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3006,7 +3006,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -3060,7 +3060,7 @@
         <v>32.5</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3114,7 +3114,7 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -3168,7 +3168,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3222,7 +3222,7 @@
         <v>40.5</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -3276,7 +3276,7 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -3330,7 +3330,7 @@
         <v>41.5</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -3384,7 +3384,7 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3438,7 +3438,7 @@
         <v>42.5</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -3492,7 +3492,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -3546,7 +3546,7 @@
         <v>43.5</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -3600,7 +3600,7 @@
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -3654,7 +3654,7 @@
         <v>44.5</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -3708,7 +3708,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3762,7 +3762,7 @@
         <v>45.5</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>49.5</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -3924,7 +3924,7 @@
         <v>50.5</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -3978,7 +3978,7 @@
         <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4032,7 +4032,7 @@
         <v>51.5</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4086,7 +4086,7 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4140,7 +4140,7 @@
         <v>52.5</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4194,7 +4194,7 @@
         <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4248,7 +4248,7 @@
         <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4356,7 +4356,7 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4410,7 +4410,7 @@
         <v>70.5</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -4464,7 +4464,7 @@
         <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4523,11 +4523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CDD314-E06C-4AC0-8DDE-77CC4444BECC}">
   <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,13 +4543,13 @@
         <v>57</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4557,7 +4557,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -4575,7 +4575,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6">
         <v>0.8</v>
@@ -4593,7 +4593,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6">
         <v>0.5</v>
@@ -4611,7 +4611,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="6">
         <v>0.65</v>
@@ -4629,7 +4629,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -4664,7 +4664,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="6">
         <v>0.87</v>
@@ -4681,7 +4681,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="6">
         <v>0.55000000000000004</v>
@@ -4698,7 +4698,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="6">
         <v>0.65</v>
@@ -4715,7 +4715,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>20.5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -4749,7 +4749,7 @@
         <v>20.5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="6">
         <v>0.87</v>
@@ -4766,7 +4766,7 @@
         <v>20.5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6">
         <v>0.55000000000000004</v>
@@ -4783,7 +4783,7 @@
         <v>20.5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="6">
         <v>0.65</v>
@@ -4800,7 +4800,7 @@
         <v>20.5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -4834,7 +4834,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6">
         <v>0.89</v>
@@ -4851,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6">
         <v>0.35</v>
@@ -4868,7 +4868,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6">
         <v>0.45</v>
@@ -4885,7 +4885,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>21.5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -4919,7 +4919,7 @@
         <v>21.5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6">
         <v>0.89</v>
@@ -4936,7 +4936,7 @@
         <v>21.5</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="6">
         <v>0.35</v>
@@ -4953,7 +4953,7 @@
         <v>21.5</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="6">
         <v>0.45</v>
@@ -4970,7 +4970,7 @@
         <v>21.5</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -5004,7 +5004,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6">
         <v>0.9</v>
@@ -5021,7 +5021,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="6">
         <v>0.52500000000000002</v>
@@ -5038,7 +5038,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6">
         <v>0.6</v>
@@ -5055,7 +5055,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>30.5</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -5089,7 +5089,7 @@
         <v>30.5</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="6">
         <v>0.9</v>
@@ -5106,7 +5106,7 @@
         <v>30.5</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="6">
         <v>0.52500000000000002</v>
@@ -5123,7 +5123,7 @@
         <v>30.5</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="6">
         <v>0.6</v>
@@ -5140,7 +5140,7 @@
         <v>30.5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -5174,7 +5174,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" s="6">
         <v>0.875</v>
@@ -5191,7 +5191,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="6">
         <v>0.4</v>
@@ -5208,7 +5208,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="6">
         <v>0.5</v>
@@ -5225,7 +5225,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>31.5</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="6">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>31.5</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" s="6">
         <v>0.875</v>
@@ -5276,7 +5276,7 @@
         <v>31.5</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6">
         <v>0.4</v>
@@ -5293,7 +5293,7 @@
         <v>31.5</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C45" s="6">
         <v>0.5</v>
@@ -5310,7 +5310,7 @@
         <v>31.5</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>32</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -5344,7 +5344,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="6">
         <v>0.85</v>
@@ -5361,7 +5361,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="6">
         <v>0.35</v>
@@ -5378,7 +5378,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="6">
         <v>0.47499999999999998</v>
@@ -5395,7 +5395,7 @@
         <v>32</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="6">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>32.5</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="6">
         <v>1</v>
@@ -5429,7 +5429,7 @@
         <v>32.5</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="6">
         <v>0.85</v>
@@ -5446,7 +5446,7 @@
         <v>32.5</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="6">
         <v>0.35</v>
@@ -5463,7 +5463,7 @@
         <v>32.5</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="6">
         <v>0.47499999999999998</v>
@@ -5480,7 +5480,7 @@
         <v>32.5</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="6">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>33</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="6">
         <v>1</v>
@@ -5514,7 +5514,7 @@
         <v>33</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="6">
         <v>0.8</v>
@@ -5531,7 +5531,7 @@
         <v>33</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" s="6">
         <v>0.3</v>
@@ -5548,7 +5548,7 @@
         <v>33</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C60" s="6">
         <v>0.55000000000000004</v>
@@ -5565,7 +5565,7 @@
         <v>33</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C61" s="6">
         <v>0</v>
@@ -5582,7 +5582,7 @@
         <v>40</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" s="6">
         <v>1</v>
@@ -5599,7 +5599,7 @@
         <v>40</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="6">
         <v>0.88</v>
@@ -5616,7 +5616,7 @@
         <v>40</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" s="6">
         <v>0.6</v>
@@ -5633,7 +5633,7 @@
         <v>40</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" s="6">
         <v>0.67500000000000004</v>
@@ -5650,7 +5650,7 @@
         <v>40</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="6">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>40.5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C67" s="6">
         <v>1</v>
@@ -5684,7 +5684,7 @@
         <v>40.5</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C68" s="6">
         <v>0.85</v>
@@ -5701,7 +5701,7 @@
         <v>40.5</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C69" s="6">
         <v>0.52500000000000002</v>
@@ -5718,7 +5718,7 @@
         <v>40.5</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C70" s="6">
         <v>0.66</v>
@@ -5735,7 +5735,7 @@
         <v>40.5</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C71" s="6">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>41</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C72" s="6">
         <v>1</v>
@@ -5769,7 +5769,7 @@
         <v>41</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C73" s="6">
         <v>0.8</v>
@@ -5786,7 +5786,7 @@
         <v>41</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C74" s="6">
         <v>0.7</v>
@@ -5803,7 +5803,7 @@
         <v>41</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C75" s="6">
         <v>0.77500000000000002</v>
@@ -5820,7 +5820,7 @@
         <v>41</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C76" s="6">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>41.5</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C77" s="6">
         <v>1</v>
@@ -5854,7 +5854,7 @@
         <v>41.5</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C78" s="6">
         <v>0.8</v>
@@ -5871,7 +5871,7 @@
         <v>41.5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79" s="6">
         <v>0.7</v>
@@ -5888,7 +5888,7 @@
         <v>41.5</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C80" s="6">
         <v>0.8</v>
@@ -5905,7 +5905,7 @@
         <v>41.5</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C81" s="6">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>42</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C82" s="6">
         <v>1</v>
@@ -5939,7 +5939,7 @@
         <v>42</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C83" s="6">
         <v>0.75</v>
@@ -5956,7 +5956,7 @@
         <v>42</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C84" s="6">
         <v>0.65</v>
@@ -5973,7 +5973,7 @@
         <v>42</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C85" s="6">
         <v>0.72499999999999998</v>
@@ -5990,7 +5990,7 @@
         <v>42</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C86" s="6">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>42.5</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C87" s="6">
         <v>1</v>
@@ -6024,7 +6024,7 @@
         <v>42.5</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C88" s="6">
         <v>0.75</v>
@@ -6041,7 +6041,7 @@
         <v>42.5</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C89" s="6">
         <v>0.65</v>
@@ -6058,7 +6058,7 @@
         <v>42.5</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C90" s="6">
         <v>0.72499999999999998</v>
@@ -6075,7 +6075,7 @@
         <v>42.5</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C91" s="6">
         <v>0</v>
@@ -6092,7 +6092,7 @@
         <v>43</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C92" s="6">
         <v>1</v>
@@ -6109,7 +6109,7 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C93" s="6">
         <v>0.85</v>
@@ -6126,7 +6126,7 @@
         <v>43</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C94" s="6">
         <v>0.375</v>
@@ -6143,7 +6143,7 @@
         <v>43</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C95" s="6">
         <v>0.47499999999999998</v>
@@ -6160,7 +6160,7 @@
         <v>43</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C96" s="6">
         <v>0</v>
@@ -6177,7 +6177,7 @@
         <v>43.5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C97" s="6">
         <v>1</v>
@@ -6194,7 +6194,7 @@
         <v>43.5</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C98" s="6">
         <v>0.85</v>
@@ -6211,7 +6211,7 @@
         <v>43.5</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C99" s="6">
         <v>0.375</v>
@@ -6228,7 +6228,7 @@
         <v>43.5</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C100" s="6">
         <v>0.47499999999999998</v>
@@ -6245,7 +6245,7 @@
         <v>43.5</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C101" s="6">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>44</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C102" s="6">
         <v>1</v>
@@ -6279,7 +6279,7 @@
         <v>44</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C103" s="6">
         <v>0.82499999999999996</v>
@@ -6296,7 +6296,7 @@
         <v>44</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C104" s="6">
         <v>0.27500000000000002</v>
@@ -6313,7 +6313,7 @@
         <v>44</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C105" s="6">
         <v>0.32500000000000001</v>
@@ -6330,7 +6330,7 @@
         <v>44</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C106" s="6">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>44.5</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C107" s="6">
         <v>1</v>
@@ -6364,7 +6364,7 @@
         <v>44.5</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C108" s="6">
         <v>0.82499999999999996</v>
@@ -6381,7 +6381,7 @@
         <v>44.5</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C109" s="6">
         <v>0.27500000000000002</v>
@@ -6398,7 +6398,7 @@
         <v>44.5</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C110" s="6">
         <v>0.32500000000000001</v>
@@ -6415,7 +6415,7 @@
         <v>44.5</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C111" s="6">
         <v>0</v>
@@ -6432,7 +6432,7 @@
         <v>45</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C112" s="6">
         <v>1</v>
@@ -6449,7 +6449,7 @@
         <v>45</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C113" s="6">
         <v>0.81</v>
@@ -6466,7 +6466,7 @@
         <v>45</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C114" s="6">
         <v>0.26</v>
@@ -6483,7 +6483,7 @@
         <v>45</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C115" s="6">
         <v>0.33</v>
@@ -6500,7 +6500,7 @@
         <v>45</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C116" s="6">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>45.5</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C117" s="6">
         <v>1</v>
@@ -6534,7 +6534,7 @@
         <v>45.5</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C118" s="6">
         <v>0.81</v>
@@ -6551,7 +6551,7 @@
         <v>45.5</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C119" s="6">
         <v>0.26</v>
@@ -6568,7 +6568,7 @@
         <v>45.5</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C120" s="6">
         <v>0.33</v>
@@ -6585,7 +6585,7 @@
         <v>45.5</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C121" s="6">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>49.5</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C122" s="6">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>49.5</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C123" s="6">
         <v>0</v>
@@ -6636,7 +6636,7 @@
         <v>49.5</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C124" s="6">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>49.5</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C125" s="6">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>49.5</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C126" s="6">
         <v>0</v>
@@ -6687,7 +6687,7 @@
         <v>50</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C127" s="6">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>50</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C128" s="6">
         <v>0.88</v>
@@ -6721,7 +6721,7 @@
         <v>50</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C129" s="6">
         <v>0.5</v>
@@ -6738,7 +6738,7 @@
         <v>50</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C130" s="6">
         <v>0.57499999999999996</v>
@@ -6755,7 +6755,7 @@
         <v>50</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C131" s="6">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>50.5</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C132" s="6">
         <v>1</v>
@@ -6789,7 +6789,7 @@
         <v>50.5</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C133" s="6">
         <v>0.88</v>
@@ -6806,7 +6806,7 @@
         <v>50.5</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C134" s="6">
         <v>0.5</v>
@@ -6823,7 +6823,7 @@
         <v>50.5</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C135" s="6">
         <v>0.57499999999999996</v>
@@ -6840,7 +6840,7 @@
         <v>50.5</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C136" s="6">
         <v>0</v>
@@ -6857,7 +6857,7 @@
         <v>51</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C137" s="6">
         <v>1</v>
@@ -6874,7 +6874,7 @@
         <v>51</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C138" s="6">
         <v>0.77500000000000002</v>
@@ -6891,7 +6891,7 @@
         <v>51</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C139" s="6">
         <v>0.6</v>
@@ -6908,7 +6908,7 @@
         <v>51</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C140" s="6">
         <v>0.67500000000000004</v>
@@ -6925,7 +6925,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C141" s="6">
         <v>0</v>
@@ -6942,7 +6942,7 @@
         <v>51.5</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C142" s="6">
         <v>1</v>
@@ -6959,7 +6959,7 @@
         <v>51.5</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C143" s="6">
         <v>0.77500000000000002</v>
@@ -6976,7 +6976,7 @@
         <v>51.5</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C144" s="6">
         <v>0.67500000000000004</v>
@@ -6993,7 +6993,7 @@
         <v>51.5</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C145" s="6">
         <v>0.77500000000000002</v>
@@ -7010,7 +7010,7 @@
         <v>51.5</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C146" s="6">
         <v>0</v>
@@ -7027,7 +7027,7 @@
         <v>52</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C147" s="6">
         <v>1</v>
@@ -7044,7 +7044,7 @@
         <v>52</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C148" s="6">
         <v>0.85</v>
@@ -7061,7 +7061,7 @@
         <v>52</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C149" s="6">
         <v>0.47499999999999998</v>
@@ -7078,7 +7078,7 @@
         <v>52</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C150" s="6">
         <v>0.55000000000000004</v>
@@ -7095,7 +7095,7 @@
         <v>52</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C151" s="6">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>52.5</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C152" s="6">
         <v>1</v>
@@ -7129,7 +7129,7 @@
         <v>52.5</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C153" s="6">
         <v>0.85</v>
@@ -7146,7 +7146,7 @@
         <v>52.5</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C154" s="6">
         <v>0.47499999999999998</v>
@@ -7163,7 +7163,7 @@
         <v>52.5</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C155" s="6">
         <v>0.55000000000000004</v>
@@ -7180,7 +7180,7 @@
         <v>52.5</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C156" s="6">
         <v>0</v>
@@ -7197,7 +7197,7 @@
         <v>60</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C157" s="6">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>60</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C158" s="6">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>60</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C159" s="6">
         <v>0</v>
@@ -7248,7 +7248,7 @@
         <v>60</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C160" s="6">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>60</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C161" s="6">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>61</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C162" s="6">
         <v>0</v>
@@ -7299,7 +7299,7 @@
         <v>61</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C163" s="6">
         <v>0</v>
@@ -7316,7 +7316,7 @@
         <v>61</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C164" s="6">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>61</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C165" s="6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>61</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C166" s="6">
         <v>0</v>
@@ -7367,7 +7367,7 @@
         <v>62</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C167" s="6">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>62</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C168" s="6">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>62</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C169" s="6">
         <v>0</v>
@@ -7418,7 +7418,7 @@
         <v>62</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C170" s="6">
         <v>0</v>
@@ -7435,7 +7435,7 @@
         <v>62</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C171" s="6">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>63</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C172" s="6">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>63</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C173" s="6">
         <v>0.66</v>
@@ -7486,7 +7486,7 @@
         <v>63</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C174" s="6">
         <v>0.33</v>
@@ -7503,7 +7503,7 @@
         <v>63</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C175" s="6">
         <v>0.05</v>
@@ -7520,7 +7520,7 @@
         <v>63</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C176" s="6">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>70</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C177" s="6">
         <v>1</v>
@@ -7554,7 +7554,7 @@
         <v>70</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C178" s="6">
         <v>0.82</v>
@@ -7571,7 +7571,7 @@
         <v>70</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C179" s="6">
         <v>0.5</v>
@@ -7588,7 +7588,7 @@
         <v>70</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C180" s="6">
         <v>0.625</v>
@@ -7605,7 +7605,7 @@
         <v>70</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C181" s="6">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>70.5</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C182" s="6">
         <v>1</v>
@@ -7639,7 +7639,7 @@
         <v>70.5</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C183" s="6">
         <v>0.82</v>
@@ -7656,7 +7656,7 @@
         <v>70.5</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C184" s="6">
         <v>0.5</v>
@@ -7673,7 +7673,7 @@
         <v>70.5</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C185" s="6">
         <v>0.625</v>
@@ -7690,7 +7690,7 @@
         <v>70.5</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C186" s="6">
         <v>0</v>
@@ -7707,7 +7707,7 @@
         <v>100</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C187" s="6">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>100</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C188" s="6">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C189" s="6">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>100</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C190" s="6">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>100</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C191" s="6">
         <v>0</v>

--- a/medea/data/processed/data_static.xlsx
+++ b/medea/data/processed/data_static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\medea\medea\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6408F09-2305-40B8-9C0D-5CCB3FC844C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936BF649-5106-46E5-85B9-BEB59CA7BA0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{621F8D32-52B7-4CE4-9D99-ED32CD70233E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{621F8D32-52B7-4CE4-9D99-ED32CD70233E}"/>
   </bookViews>
   <sheets>
     <sheet name="number_type_legend" sheetId="5" r:id="rId1"/>
@@ -57,7 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sebastian:</t>
         </r>
@@ -66,7 +66,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 O. Schmidt et al. (2017), The future cost of electrical energy storage based on experience rates, Nature Energy</t>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="143">
   <si>
     <t>year</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>ht</t>
+  </si>
+  <si>
+    <t>Oil - Combined Cycle CoGen</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,19 +618,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -649,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -666,6 +656,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1034,9 +1026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC55109-0130-495D-B4C2-93D774DF9105}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1384,7 @@
         <v>52.5</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
         <v>111</v>
@@ -1967,13 +1959,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9B5A1D-EA9B-421F-AC28-39B233C76782}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,18 +2015,18 @@
         <v>25</v>
       </c>
       <c r="C3" s="1">
-        <v>560000</v>
+        <v>620000</v>
       </c>
       <c r="D3" s="1">
-        <v>560000</v>
+        <v>500000</v>
       </c>
       <c r="E3" s="1">
         <f>C3*([1]WACC!$B$2*(1+[1]WACC!$B$2)^$B3)/((1+[1]WACC!$B$2)^$B3-1)</f>
-        <v>39733.376087568584</v>
+        <v>43990.52352552236</v>
       </c>
       <c r="F3" s="1">
         <f>D3*([1]WACC!$C$2*(1+[1]WACC!$C$2)^$B3)/((1+[1]WACC!$C$2)^$B3-1)</f>
-        <v>35846.699160414559</v>
+        <v>32005.981393227281</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2047,18 +2039,18 @@
         <v>75</v>
       </c>
       <c r="C4" s="1">
-        <v>3800000</v>
+        <v>3400000</v>
       </c>
       <c r="D4" s="1">
-        <v>3800000</v>
+        <v>3400000</v>
       </c>
       <c r="E4" s="1">
         <f>C4*([1]WACC!$B$2*(1+[1]WACC!$B$2)^$B4)/((1+[1]WACC!$B$2)^$B4-1)</f>
-        <v>195022.11237084537</v>
+        <v>174493.46896338798</v>
       </c>
       <c r="F4" s="1">
         <f>D4*([1]WACC!$C$2*(1+[1]WACC!$C$2)^$B4)/((1+[1]WACC!$C$2)^$B4-1)</f>
-        <v>160470.20579380851</v>
+        <v>143578.60518393389</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2071,18 +2063,18 @@
         <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>1250000</v>
+        <v>1075000</v>
       </c>
       <c r="D5" s="1">
-        <v>1200000</v>
+        <v>1075000</v>
       </c>
       <c r="E5" s="1">
         <f>C5*([1]WACC!$B$2*(1+[1]WACC!$B$2)^$B5)/((1+[1]WACC!$B$2)^$B5-1)</f>
-        <v>88690.571624037024</v>
+        <v>76273.891596671834</v>
       </c>
       <c r="F5" s="1">
         <f>D5*([1]WACC!$C$2*(1+[1]WACC!$C$2)^$B5)/((1+[1]WACC!$C$2)^$B5-1)</f>
-        <v>76814.355343745483</v>
+        <v>68812.859995438659</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2130,6 +2122,7 @@
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
@@ -2148,6 +2141,33 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="12"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="10"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="13"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4523,7 +4543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CDD314-E06C-4AC0-8DDE-77CC4444BECC}">
   <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
